--- a/biology/Zoologie/Dolichophis_schmidti/Dolichophis_schmidti.xlsx
+++ b/biology/Zoologie/Dolichophis_schmidti/Dolichophis_schmidti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolichophis schmidti est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolichophis schmidti est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] en Arménie, en Azerbaïdjan, au Caucase en Russie, dans le sud du Daghestan, en Géorgie, dans le nord de l'Iran, en Jordanie, au Turkménistan et en Turquie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Arménie, en Azerbaïdjan, au Caucase en Russie, dans le sud du Daghestan, en Géorgie, dans le nord de l'Iran, en Jordanie, au Turkménistan et en Turquie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichophis schmidti mesure environ 130 cm. La coloration de cette espèce varie avec l'âge. Adulte, la couleur de base est brun-roux ou rouge brique. Le ventre des mâles est généralement brun ou gris avec des taches longitudinales.
 Cette espèce se nourrit de petits mammifères, d'oiseaux, d'amphibiens, de reptiles et d'insectes. C'est un serpent diurne très agressif qui peut faire des bonds lorsqu'il est dérangé.
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné très probablement en l'honneur de Pjotr Juljewitsch Schmidt (1872-1949), ichtyologiste soviétique.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Nikolsky, 1909 : Novae species reptiliem e Caucaso. Tiflis Mitteilungen Kaukasische Museum, vol. 4, p. 301-306 (ru).</t>
         </is>
